--- a/protected/xls_format/project_import_format_test.xlsx
+++ b/protected/xls_format/project_import_format_test.xlsx
@@ -139,6 +139,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是</t>
@@ -151,6 +152,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是</t>
@@ -163,6 +165,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新一代宽带无线网络信道资源管理技术研究</t>
@@ -175,6 +178,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>超高速无线局域网无线接口关键技术研究与验证</t>
@@ -187,6 +191,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是</t>
@@ -199,6 +204,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>混合式动态频谱资源共享宽带无线通信协议的设计与实现</t>
@@ -211,6 +217,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是</t>
@@ -223,6 +230,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冷甦鹏</t>
@@ -235,6 +243,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>毛玉明</t>
@@ -247,6 +256,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吴凡</t>
@@ -258,6 +268,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>段景山</t>
@@ -269,6 +280,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张科</t>
@@ -280,6 +292,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>黄晓燕</t>
@@ -291,6 +304,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>杨建军</t>
@@ -302,6 +316,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>韦云凯</t>
@@ -313,6 +328,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>蒋体钢</t>
@@ -324,6 +340,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>马立香</t>
@@ -335,6 +352,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>杨宁</t>
@@ -346,6 +364,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>尹杰晨</t>
@@ -357,6 +376,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>邵彩幸</t>
@@ -368,6 +388,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>卢占一</t>
@@ -380,6 +401,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赵政</t>
@@ -392,6 +414,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>罗翔</t>
@@ -404,6 +427,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李学勇</t>
@@ -416,6 +440,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吕君伟</t>
@@ -428,6 +453,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王丰</t>
@@ -440,6 +466,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张民超</t>
@@ -452,6 +479,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>基于认知无线电的通信抗干扰理论与技术</t>
@@ -464,6 +492,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>蒋体钢</t>
@@ -476,6 +505,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赵全鑫</t>
@@ -492,6 +522,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>项目</t>
@@ -505,6 +536,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>项目名称</t>
@@ -518,6 +550,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>编号</t>
@@ -531,6 +564,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>国家级</t>
@@ -544,6 +578,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>省部级</t>
@@ -557,6 +592,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>市级</t>
@@ -570,6 +606,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>校级</t>
@@ -583,6 +620,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>横向</t>
@@ -596,6 +634,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>国家自然基金</t>
@@ -609,6 +648,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>科技支撑计划</t>
@@ -622,6 +662,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>教育部高校博士点基金</t>
@@ -635,6 +676,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>重大专项</t>
@@ -648,6 +690,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>开始时间</t>
@@ -661,6 +704,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>截止时间</t>
@@ -674,6 +718,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>经费</t>
@@ -687,6 +732,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -710,6 +756,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -732,6 +779,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -754,6 +802,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -776,6 +825,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -798,6 +848,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -820,6 +871,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -842,6 +894,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -864,6 +917,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -886,6 +940,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -908,6 +963,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -930,6 +986,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -952,6 +1009,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -974,6 +1032,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -996,6 +1055,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -1018,6 +1078,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -1040,6 +1101,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -1062,6 +1124,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -1084,6 +1147,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -1106,6 +1170,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人员人</t>
@@ -1127,6 +1192,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>面向无线传感器网络的非易失性元胞自动机建模及分析</t>
@@ -1139,6 +1205,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是</t>
@@ -1151,6 +1218,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>于秦</t>
@@ -1162,6 +1230,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李维乔</t>
@@ -1173,6 +1242,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王东旭</t>
@@ -1184,6 +1254,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>安宁</t>
@@ -1195,6 +1266,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>基于分层结构的无线</t>
@@ -1213,6 +1285,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>网络关键技术研究</t>
@@ -1225,6 +1298,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是</t>
@@ -1237,6 +1311,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>基于元胞自动机的无线传感网络拓扑控制关键技术研究</t>
@@ -1249,6 +1324,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>异构无线网络的无线资源管理关键技术研究</t>
@@ -1261,6 +1337,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冷甦鹏</t>
@@ -1272,6 +1349,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>段景山</t>
@@ -1283,6 +1361,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>无线</t>
@@ -1301,6 +1380,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>网络关键技术研究</t>
@@ -1313,6 +1393,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是</t>
@@ -1325,6 +1406,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>韦云凯</t>
@@ -1337,6 +1419,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>杨建军</t>
@@ -1349,6 +1432,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吴凡</t>
@@ -1361,6 +1445,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张科</t>
@@ -1373,6 +1458,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>基于</t>
@@ -1391,6 +1477,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的工业</t>
@@ -1409,6 +1496,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>组网与节能</t>
@@ -1427,6 +1515,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>技术</t>
@@ -1439,6 +1528,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>毛玉明</t>
@@ -1451,6 +1541,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冷甦鹏</t>
@@ -1463,6 +1554,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刘强</t>
@@ -1475,6 +1567,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李龙江</t>
@@ -1487,6 +1580,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>庄奕群</t>
@@ -1499,6 +1593,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刘佳</t>
@@ -1511,6 +1606,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>万静</t>
@@ -1523,6 +1619,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙门山地震带小流域滑坡泥石流灾害监测预警技术研究与示范</t>
@@ -1535,6 +1632,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吴晶晶</t>
@@ -1547,6 +1645,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>董晓俊</t>
@@ -1559,6 +1658,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李唯乔</t>
@@ -1571,6 +1671,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>秦泗明</t>
@@ -1583,6 +1684,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张磊</t>
@@ -1595,6 +1697,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王东旭</t>
@@ -1607,6 +1710,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>车用无线自组织网络安全告警信息传输策略研究</t>
@@ -1619,6 +1723,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是</t>
@@ -1631,6 +1736,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冷甦鹏</t>
@@ -1643,6 +1749,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>邵彩幸</t>
@@ -1655,6 +1762,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>汪庆</t>
@@ -1667,6 +1775,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>曾鸣</t>
@@ -1679,6 +1788,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>黄龙娇</t>
@@ -1691,6 +1801,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刘科</t>
@@ -1703,6 +1814,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刘畅玥</t>
@@ -1715,6 +1827,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>裴科</t>
@@ -1727,6 +1840,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>超高速无线局域网无线接口关键技术研究与验证</t>
@@ -1739,6 +1853,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冷甦鹏</t>
@@ -1751,6 +1866,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吴凡</t>
@@ -1763,6 +1879,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>黄晓燕</t>
@@ -1775,6 +1892,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>毛玉明</t>
@@ -1787,6 +1905,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>尹杰晨</t>
@@ -1799,6 +1918,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>邵彩幸</t>
@@ -1811,6 +1931,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>曾鸣</t>
@@ -1823,6 +1944,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>方飞</t>
@@ -1835,6 +1957,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刘洋</t>
@@ -1847,6 +1970,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>卜艳丽</t>
@@ -1859,6 +1983,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>秦博</t>
@@ -1871,6 +1996,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王会磊</t>
@@ -1883,6 +2009,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>马文军</t>
@@ -1895,6 +2022,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李雷敏</t>
@@ -1907,6 +2035,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>徐良</t>
@@ -1922,6 +2051,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抗干扰模型研究</t>
@@ -1934,6 +2064,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>于秦</t>
@@ -1946,6 +2077,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张科</t>
@@ -1957,6 +2089,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>毛玉明</t>
@@ -1969,6 +2102,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>叶景超</t>
@@ -1981,6 +2115,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王永鑫</t>
@@ -1993,6 +2128,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刘津</t>
@@ -2005,6 +2141,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>陈睿</t>
@@ -2017,6 +2154,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赵全鑫</t>
@@ -2029,6 +2167,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王奇佳</t>
@@ -2041,6 +2180,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>车用无线自织网交通安全告警信息传输策略研究</t>
@@ -2053,6 +2193,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>汪庆</t>
@@ -2065,6 +2206,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>黄龙娇</t>
@@ -2077,6 +2219,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刘科</t>
@@ -2089,6 +2232,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刘畅玥</t>
@@ -2101,6 +2245,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>裴科</t>
@@ -2113,6 +2258,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新世纪优秀人才支持计划项目</t>
@@ -2125,6 +2271,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冷甦鹏</t>
@@ -2137,6 +2284,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>杨建军</t>
@@ -2149,6 +2297,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>邱畅啸</t>
@@ -2161,6 +2310,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>先进传感器网络技术的研究</t>
@@ -2173,6 +2323,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刘强</t>
@@ -2185,6 +2336,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李龙江</t>
@@ -2197,6 +2349,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>韦云凯</t>
@@ -2209,6 +2362,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>庄奕群</t>
@@ -2221,6 +2375,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>陈飞</t>
@@ -2233,6 +2388,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>跳频体制下</t>
@@ -2251,6 +2407,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>组网技术研究</t>
@@ -2263,6 +2420,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>饶渐升</t>
@@ -2275,6 +2433,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>宽带无线校园创新实验网体系架构与关键技术研究</t>
@@ -2286,6 +2445,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>蒋体钢</t>
@@ -2298,6 +2458,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>杨宁</t>
@@ -2310,6 +2471,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>全</t>
@@ -2340,6 +2502,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>马立香</t>
@@ -2352,6 +2515,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>传感器网络总体研究及仿真平台</t>
@@ -2363,6 +2527,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>姜余</t>
@@ -2375,6 +2540,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>刘佳</t>
@@ -2387,6 +2553,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>万静</t>
@@ -2399,6 +2566,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>尹杰晨</t>
@@ -2411,6 +2579,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>滑坡泥石流灾害监测预警技术集成与应用示范</t>
@@ -2422,6 +2591,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张科</t>
@@ -2434,6 +2604,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>段景山</t>
@@ -2446,6 +2617,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吴晶晶</t>
@@ -2458,6 +2630,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>董晓俊</t>
@@ -2470,6 +2643,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>李唯乔</t>
@@ -2482,6 +2656,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>秦泗明</t>
@@ -2494,6 +2669,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张磊</t>
@@ -2506,6 +2682,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王东旭</t>
@@ -2518,6 +2695,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>无线局域网与蜂窝移动通信网络融合技术研究与验证</t>
@@ -2529,6 +2707,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是</t>
@@ -2540,6 +2719,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吴凡</t>
@@ -2552,6 +2732,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>黄晓燕</t>
@@ -2564,6 +2745,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>杨建军</t>
@@ -2575,6 +2757,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>毛玉明</t>
@@ -2586,6 +2769,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>吴小波</t>
@@ -2597,6 +2781,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>曹剑</t>
@@ -2608,6 +2793,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>梁丹</t>
@@ -2619,6 +2805,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王丰</t>
@@ -2630,6 +2817,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王全理</t>
@@ -2641,6 +2829,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>何鹏</t>
@@ -2688,6 +2877,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是</t>
@@ -2704,6 +2894,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2713,6 +2904,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2948,6 +3140,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>杨宁</t>
@@ -2964,6 +3157,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>马立香</t>
@@ -2976,6 +3170,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>唐宠</t>
@@ -2988,6 +3183,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>熊小林</t>
@@ -3000,6 +3196,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>延冬</t>
@@ -3012,6 +3209,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>王少华</t>
@@ -3024,6 +3222,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赵雨</t>
@@ -3036,6 +3235,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张文学</t>
@@ -3077,6 +3277,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>维护人</t>
@@ -3489,7 +3690,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3499,25 +3700,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3576,37 +3758,28 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3614,6 +3787,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3634,6 +3808,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3641,6 +3816,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3648,8 +3824,16 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3775,7 +3959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3792,103 +3976,103 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3897,22 +4081,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4219,8 +4403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ389"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AR28" sqref="A28:AR36"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4247,50 +4431,50 @@
       <c r="S1" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="42" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="42"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="42"/>
-      <c r="BH1" s="42"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
     </row>
     <row r="2" spans="1:62" ht="35.1" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -4353,124 +4537,124 @@
       <c r="T2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="U2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="40" t="s">
+      <c r="X2" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="40" t="s">
+      <c r="Y2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="AA2" s="40" t="s">
+      <c r="AA2" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="AC2" s="40" t="s">
+      <c r="AC2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="40" t="s">
+      <c r="AD2" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="AE2" s="40" t="s">
+      <c r="AE2" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="AF2" s="40" t="s">
+      <c r="AF2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="AG2" s="40" t="s">
+      <c r="AG2" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="AH2" s="40" t="s">
+      <c r="AH2" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="AI2" s="40" t="s">
+      <c r="AI2" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="AJ2" s="40" t="s">
+      <c r="AJ2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" s="40" t="s">
+      <c r="AK2" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AL2" s="40" t="s">
+      <c r="AL2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AM2" s="40" t="s">
+      <c r="AM2" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AN2" s="41" t="s">
+      <c r="AN2" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AO2" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="AP2" s="43" t="s">
+      <c r="AP2" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="AQ2" s="43" t="s">
+      <c r="AQ2" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="AR2" s="43" t="s">
+      <c r="AR2" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="AS2" s="43" t="s">
+      <c r="AS2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AT2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AU2" s="43" t="s">
+      <c r="AU2" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="AV2" s="43" t="s">
+      <c r="AV2" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="AW2" s="43" t="s">
+      <c r="AW2" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="AX2" s="43" t="s">
+      <c r="AX2" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="AY2" s="43" t="s">
+      <c r="AY2" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="AZ2" s="43" t="s">
+      <c r="AZ2" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="BA2" s="43" t="s">
+      <c r="BA2" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="BB2" s="43" t="s">
+      <c r="BB2" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="BC2" s="43" t="s">
+      <c r="BC2" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BD2" s="43" t="s">
+      <c r="BD2" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="BE2" s="43" t="s">
+      <c r="BE2" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="BF2" s="43" t="s">
+      <c r="BF2" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="BG2" s="43" t="s">
+      <c r="BG2" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="BH2" s="44" t="s">
+      <c r="BH2" s="42" t="s">
         <v>95</v>
       </c>
       <c r="BI2" s="1"/>
@@ -9718,5 +9902,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>